--- a/staticData/actual.xlsx
+++ b/staticData/actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frans/Desktop/AE/AE3212_II-Simulation_Varification_and_Validation/Flight_Dynamics/Code/SVV_FD_sim/staticData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD9B0BA-04ED-AE49-8BE3-315338C6A268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71061A6B-2A56-064C-BB28-1B949D54FED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20080" yWindow="1940" windowWidth="27840" windowHeight="17060" activeTab="2" xr2:uid="{9A4F3A52-E8AA-3441-AA30-A55D2827D752}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9A4F3A52-E8AA-3441-AA30-A55D2827D752}"/>
   </bookViews>
   <sheets>
     <sheet name="static1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -187,25 +187,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -799,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A20716-A749-BE4A-99B1-2BD6F999E41E}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,7 +903,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -939,7 +935,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -971,7 +967,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1003,7 +999,7 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1035,7 +1031,7 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1196,7 +1192,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C75E641-4CDE-A84F-B2FC-D76316F15740}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/staticData/actual.xlsx
+++ b/staticData/actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frans/Desktop/AE/AE3212_II-Simulation_Varification_and_Validation/Flight_Dynamics/Code/SVV_FD_sim/staticData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71061A6B-2A56-064C-BB28-1B949D54FED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE56BF7-44AF-894A-965E-4D054956B9A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9A4F3A52-E8AA-3441-AA30-A55D2827D752}"/>
+    <workbookView xWindow="12220" yWindow="0" windowWidth="16580" windowHeight="18000" activeTab="2" xr2:uid="{9A4F3A52-E8AA-3441-AA30-A55D2827D752}"/>
   </bookViews>
   <sheets>
     <sheet name="static1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
   <si>
     <t>nr.</t>
   </si>
@@ -85,12 +85,6 @@
     <t>[deg C]</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
     <t>Vi</t>
   </si>
   <si>
@@ -109,12 +103,6 @@
     <t>[N]</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
     <t>second stationary measurement series / measurement 2</t>
   </si>
   <si>
@@ -125,30 +113,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>4.8</t>
   </si>
 </sst>
 </file>
@@ -209,7 +173,280 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -795,15 +1032,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A20716-A749-BE4A-99B1-2BD6F999E41E}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -849,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -872,31 +1109,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>2.0833333333333332E-2</v>
+        <v>1.5740740740740743E-2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4">
-        <v>17990</v>
+        <v>12000</v>
       </c>
       <c r="E4" s="4">
-        <v>225</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>249</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.6</v>
       </c>
       <c r="G4" s="4">
-        <v>590</v>
+        <v>737</v>
       </c>
       <c r="H4" s="4">
-        <v>620</v>
+        <v>787</v>
       </c>
       <c r="I4" s="4">
-        <v>1720</v>
+        <v>494</v>
       </c>
       <c r="J4" s="4">
-        <v>-4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -904,31 +1141,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>2.1527777777777781E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4">
-        <v>17990</v>
+        <v>11990</v>
       </c>
       <c r="E5" s="4">
-        <v>220</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>222</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.2000000000000002</v>
       </c>
       <c r="G5" s="4">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="H5" s="4">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="I5" s="4">
-        <v>1720</v>
+        <v>519</v>
       </c>
       <c r="J5" s="4">
-        <v>-6.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -936,31 +1173,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>2.2916666666666669E-2</v>
+        <v>1.8634259259259257E-2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4">
-        <v>17990</v>
+        <v>12140</v>
       </c>
       <c r="E6" s="4">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="F6" s="4">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G6" s="4">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="H6" s="4">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="I6" s="4">
-        <v>1720</v>
+        <v>565</v>
       </c>
       <c r="J6" s="4">
-        <v>-8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -968,31 +1205,31 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>2.4305555555555556E-2</v>
+        <v>2.013888888888889E-2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4">
-        <v>17980</v>
+        <v>12140</v>
       </c>
       <c r="E7" s="4">
-        <v>160</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>162</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5.3</v>
       </c>
       <c r="G7" s="4">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="H7" s="4">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="I7" s="4">
-        <v>1720</v>
+        <v>593</v>
       </c>
       <c r="J7" s="4">
-        <v>-9.8000000000000007</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1000,31 +1237,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>2.6388888888888889E-2</v>
+        <v>2.1990740740740741E-2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4">
-        <v>17990</v>
+        <v>12050</v>
       </c>
       <c r="E8" s="4">
-        <v>132</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
+        <v>130</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8.6999999999999993</v>
       </c>
       <c r="G8" s="4">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H8" s="4">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="I8" s="4">
-        <v>1720</v>
+        <v>627</v>
       </c>
       <c r="J8" s="4">
-        <v>-11.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1032,31 +1269,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>2.7083333333333334E-2</v>
+        <v>2.342592592592593E-2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4">
-        <v>17975</v>
+        <v>12080</v>
       </c>
       <c r="E9" s="4">
-        <v>120</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>33</v>
+        <v>118</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10.5</v>
       </c>
       <c r="G9" s="4">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H9" s="4">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="I9" s="4">
-        <v>1720</v>
+        <v>657</v>
       </c>
       <c r="J9" s="4">
-        <v>-12</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1159,28 +1396,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C13:M19">
-    <cfRule type="expression" priority="4">
+    <cfRule type="expression" priority="7">
       <formula>LEN(TRIM(C13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B19">
-    <cfRule type="expression" priority="5">
+    <cfRule type="expression" priority="8">
       <formula>LEN(TRIM(B13))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:H4 B4">
-    <cfRule type="containsBlanks" dxfId="12" priority="3">
+  <conditionalFormatting sqref="B9 D9:J9">
+    <cfRule type="containsBlanks" dxfId="12" priority="2">
+      <formula>LEN(TRIM(B9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:J8">
+    <cfRule type="containsBlanks" dxfId="11" priority="3">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:J4 B5:J9">
-    <cfRule type="containsBlanks" dxfId="11" priority="2">
-      <formula>LEN(TRIM(B4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="C9">
     <cfRule type="containsBlanks" dxfId="10" priority="1">
-      <formula>LEN(TRIM(C4))=0</formula>
+      <formula>LEN(TRIM(C9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1192,14 +1429,14 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1225,7 +1462,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -1254,19 +1491,19 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
@@ -1286,40 +1523,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>3.1944444444444449E-2</v>
+        <v>2.6967592592592595E-2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4">
-        <v>17970</v>
+        <v>11970</v>
       </c>
       <c r="E4" s="4">
-        <v>146</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>160</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.4</v>
       </c>
       <c r="G4" s="4">
-        <v>-0.9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.4</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="K4" s="4">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="L4" s="4">
-        <v>1650</v>
+        <v>731</v>
       </c>
       <c r="M4" s="4">
-        <v>-10.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1327,40 +1564,40 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>3.2638888888888891E-2</v>
+        <v>2.8935185185185185E-2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4">
-        <v>18250</v>
+        <v>12300</v>
       </c>
       <c r="E5" s="4">
-        <v>137</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>149</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6.2</v>
       </c>
       <c r="G5" s="4">
-        <v>-1.4</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>-0.2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3.4</v>
       </c>
       <c r="I5" s="4">
         <v>-16</v>
       </c>
       <c r="J5" s="4">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K5" s="4">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="L5" s="4">
-        <v>1650</v>
+        <v>775</v>
       </c>
       <c r="M5" s="4">
-        <v>-11.8</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1368,40 +1605,40 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>3.3333333333333333E-2</v>
+        <v>2.9699074074074072E-2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4">
-        <v>18510</v>
+        <v>12519</v>
       </c>
       <c r="E6" s="4">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F6" s="4">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="G6" s="4">
-        <v>-2</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
+        <v>-0.6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.4</v>
       </c>
       <c r="I6" s="4">
-        <v>-29</v>
+        <v>-27</v>
       </c>
       <c r="J6" s="4">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K6" s="4">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="L6" s="4">
-        <v>1650</v>
+        <v>787</v>
       </c>
       <c r="M6" s="4">
-        <v>-13</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1409,40 +1646,40 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>3.4027777777777775E-2</v>
+        <v>3.0624999999999999E-2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4">
-        <v>18770</v>
+        <v>12890</v>
       </c>
       <c r="E7" s="4">
-        <v>118</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>130</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8.5</v>
       </c>
       <c r="G7" s="4">
-        <v>-2.7</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>-1.2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3.4</v>
       </c>
       <c r="I7" s="4">
-        <v>-44</v>
+        <v>-40</v>
       </c>
       <c r="J7" s="4">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K7" s="4">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="L7" s="4">
-        <v>1650</v>
+        <v>807</v>
       </c>
       <c r="M7" s="4">
-        <v>-13.9</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1450,40 +1687,40 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>3.5416666666666666E-2</v>
+        <v>3.1817129629629633E-2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4">
-        <v>17970</v>
+        <v>12090</v>
       </c>
       <c r="E8" s="4">
-        <v>157</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
+        <v>171</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G8" s="4">
-        <v>-0.5</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3.4</v>
       </c>
       <c r="I8" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J8" s="4">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="K8" s="4">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="L8" s="4">
-        <v>1650</v>
+        <v>837</v>
       </c>
       <c r="M8" s="4">
-        <v>-10</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1491,40 +1728,40 @@
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>3.6111111111111115E-2</v>
+        <v>3.2488425925925928E-2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4">
-        <v>17760</v>
+        <v>11770</v>
       </c>
       <c r="E9" s="4">
-        <v>166</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>181</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
       </c>
       <c r="G9" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3.4</v>
       </c>
       <c r="I9" s="4">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J9" s="4">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="K9" s="4">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="L9" s="4">
-        <v>1650</v>
+        <v>851</v>
       </c>
       <c r="M9" s="4">
-        <v>-8.8000000000000007</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1532,40 +1769,40 @@
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>3.6805555555555557E-2</v>
+        <v>3.3784722222222223E-2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4">
-        <v>17390</v>
+        <v>10960</v>
       </c>
       <c r="E10" s="4">
-        <v>177</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>190</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.4</v>
       </c>
       <c r="G10" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3.4</v>
       </c>
       <c r="I10" s="4">
         <v>72</v>
       </c>
       <c r="J10" s="4">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="K10" s="4">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="L10" s="4">
-        <v>1650</v>
+        <v>884</v>
       </c>
       <c r="M10" s="4">
-        <v>-7.2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1622,15 +1859,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C75E641-4CDE-A84F-B2FC-D76316F15740}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1656,7 +1893,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -1685,19 +1922,19 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
@@ -1717,40 +1954,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>3.8194444444444441E-2</v>
+        <v>3.4953703703703702E-2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4">
-        <v>18100</v>
+        <v>11630</v>
       </c>
       <c r="E4" s="4">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F4" s="4">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="G4" s="4">
-        <v>-0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H4" s="4">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="K4" s="4">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="L4" s="4">
-        <v>1650</v>
+        <v>880</v>
       </c>
       <c r="M4" s="4">
-        <v>-11.2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1758,40 +1995,40 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>3.9583333333333331E-2</v>
+        <v>3.5833333333333335E-2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4">
-        <v>18240</v>
+        <v>11730</v>
       </c>
       <c r="E5" s="4">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F5" s="4">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="G5" s="4">
-        <v>-1.4</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>-0.3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3.4</v>
       </c>
       <c r="I5" s="4">
-        <v>-22</v>
+        <v>-30</v>
       </c>
       <c r="J5" s="4">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="K5" s="4">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="L5" s="4">
-        <v>1650</v>
+        <v>906</v>
       </c>
       <c r="M5" s="4">
-        <v>-11.3</v>
+        <v>-0.8</v>
       </c>
     </row>
   </sheetData>
